--- a/batteryCharger/doc/bom.xlsx
+++ b/batteryCharger/doc/bom.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans\Documents\git\BatteryCharger\batteryCharger\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ap044002\Documents\git\BatteryCharger\batteryCharger\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDECEED-0F26-412B-B7E0-19248C1A4845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6994F856-9DCC-4777-B79D-FB282574A0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="3585" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Part name</t>
   </si>
@@ -48,15 +50,9 @@
     <t>BQ24630</t>
   </si>
   <si>
-    <t>Buck Charger</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/broadcom-limited/HCPL-181-00BE/516-1787-1-ND/1966493</t>
   </si>
   <si>
-    <t>opto</t>
-  </si>
-  <si>
     <t xml:space="preserve">LTV-816S </t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>https://www.digikey.com/product-detail/en/sumida-america-components-inc/CEP125NP-5R6MC-H/308-2325-1-ND/4356394</t>
   </si>
   <si>
-    <t>Thermister</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACM011 </t>
   </si>
   <si>
@@ -129,9 +122,6 @@
     <t>Male 3p Connector</t>
   </si>
   <si>
-    <t>Current sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-8CWJR010V/P0-01BWCT-ND/4927054 </t>
   </si>
   <si>
@@ -147,9 +137,6 @@
     <t>CL31A106MAHNNNE</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIR401DP-T1-GE3 </t>
   </si>
   <si>
@@ -199,6 +186,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/jst-sales-america-inc/S2B-PH-SM4-TB-LF-SN/455-1749-1-ND/926846 </t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000013163243.html?spm=a2g0s.9042311.0.0.2eca4c4dg8351D</t>
+  </si>
+  <si>
+    <t>1808 Fuse holder</t>
+  </si>
+  <si>
+    <t>1808 Fuse</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000063485981.html?spm=a2g0o.productlist.0.0.42f4100dPoEfBC&amp;algo_pvid=40e09307-367d-4972-ad5c-c203eddd128f&amp;algo_expid=40e09307-367d-4972-ad5c-c203eddd128f-1&amp;btsid=0ab50a5715946627695458789e8200&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
+  </si>
+  <si>
+    <t>Charger IC</t>
+  </si>
+  <si>
+    <t>opto 5.8UH</t>
+  </si>
+  <si>
+    <t>Thermister 10K</t>
+  </si>
+  <si>
+    <t>Current sensor 0.01</t>
+  </si>
+  <si>
+    <t>Capacitor 10uf</t>
   </si>
 </sst>
 </file>
@@ -300,15 +314,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="double">
+      <border outline="0">
+        <top style="double">
           <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="double">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -319,10 +328,15 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="double">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="double">
           <color rgb="FF3F3F3F"/>
-        </top>
+        </left>
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -339,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F4DEFF7-EC13-42C2-82E2-C26824E6A21A}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="Check Cell">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F4DEFF7-EC13-42C2-82E2-C26824E6A21A}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Check Cell">
   <autoFilter ref="A1:D37" xr:uid="{AEA383AC-B96B-4963-A177-A2BD4746EDD5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97C9DEE1-2CDE-4CEE-99EB-98469145BBBB}" name="Part name"/>
@@ -617,7 +631,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +658,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -653,240 +667,268 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2.73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0.18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0.39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0.14000000000000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0.36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>0.52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>0.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>0.92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>0.41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>0.28000000000000003</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>0.1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>0.57999999999999996</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>0.27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <f>SUM(Table1[price])</f>
-        <v>15.359999999999996</v>
+        <v>15.829999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +950,12 @@
     <hyperlink ref="D16" r:id="rId15" xr:uid="{248F4D13-0AEF-422C-817D-7591585741C4}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{9582B4F2-CA9E-44AC-AF06-55BB331627FF}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{13479812-D78D-4525-88F8-F71589E3AD8C}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{248E6D2A-524C-414E-B859-EFD8A93DE9F3}"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.aliexpress.com/item/4000063485981.html?spm=a2g0o.productlist.0.0.42f4100dPoEfBC&amp;algo_pvid=40e09307-367d-4972-ad5c-c203eddd128f&amp;algo_expid=40e09307-367d-4972-ad5c-c203eddd128f-1&amp;btsid=0ab50a5715946627695458789e8200&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6811CB6F-83C9-42A1-9AD1-5E510287CC3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>